--- a/Code/Results/Cases/Case_4_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000815248269318</v>
+        <v>1.036694630684902</v>
       </c>
       <c r="D2">
-        <v>1.022684015958338</v>
+        <v>1.044345466682616</v>
       </c>
       <c r="E2">
-        <v>1.00898527962994</v>
+        <v>1.040343640754303</v>
       </c>
       <c r="F2">
-        <v>1.026695000380997</v>
+        <v>1.05287886545348</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044947479782434</v>
+        <v>1.036917892748111</v>
       </c>
       <c r="J2">
-        <v>1.022971602712529</v>
+        <v>1.041801549840452</v>
       </c>
       <c r="K2">
-        <v>1.033836119378384</v>
+        <v>1.047116777370738</v>
       </c>
       <c r="L2">
-        <v>1.020320838610894</v>
+        <v>1.043126257244017</v>
       </c>
       <c r="M2">
-        <v>1.037794548803713</v>
+        <v>1.055626379067381</v>
       </c>
       <c r="N2">
-        <v>1.024424339724864</v>
+        <v>1.043281027537533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006038130392725</v>
+        <v>1.037795243449714</v>
       </c>
       <c r="D3">
-        <v>1.02664059683797</v>
+        <v>1.045196586551238</v>
       </c>
       <c r="E3">
-        <v>1.013699795351927</v>
+        <v>1.041392913115981</v>
       </c>
       <c r="F3">
-        <v>1.031174873769278</v>
+        <v>1.05386332215236</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046263226002731</v>
+        <v>1.037128078460867</v>
       </c>
       <c r="J3">
-        <v>1.026365532456076</v>
+        <v>1.042545472805016</v>
       </c>
       <c r="K3">
-        <v>1.036943586277042</v>
+        <v>1.047779012258042</v>
       </c>
       <c r="L3">
-        <v>1.024160334986811</v>
+        <v>1.043985305131532</v>
       </c>
       <c r="M3">
-        <v>1.041423819232067</v>
+        <v>1.056423329363004</v>
       </c>
       <c r="N3">
-        <v>1.027823089237936</v>
+        <v>1.044026006958036</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009343039217177</v>
+        <v>1.038507660308317</v>
       </c>
       <c r="D4">
-        <v>1.029146536733091</v>
+        <v>1.04574733384831</v>
       </c>
       <c r="E4">
-        <v>1.016688812060717</v>
+        <v>1.04207246211418</v>
       </c>
       <c r="F4">
-        <v>1.034014197919324</v>
+        <v>1.05450065787718</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047085126726494</v>
+        <v>1.037262759522156</v>
       </c>
       <c r="J4">
-        <v>1.028510731424419</v>
+        <v>1.04302653782935</v>
       </c>
       <c r="K4">
-        <v>1.038905468699042</v>
+        <v>1.048206895907588</v>
       </c>
       <c r="L4">
-        <v>1.026589905477818</v>
+        <v>1.044541166555784</v>
       </c>
       <c r="M4">
-        <v>1.043718727684454</v>
+        <v>1.05693871936551</v>
       </c>
       <c r="N4">
-        <v>1.029971334634872</v>
+        <v>1.044507755149884</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010715276338414</v>
+        <v>1.038807219804913</v>
       </c>
       <c r="D5">
-        <v>1.03018751628339</v>
+        <v>1.045978871294667</v>
       </c>
       <c r="E5">
-        <v>1.017931230785164</v>
+        <v>1.042358287906623</v>
       </c>
       <c r="F5">
-        <v>1.035194146979547</v>
+        <v>1.054768671517106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047423781817852</v>
+        <v>1.037319062454998</v>
       </c>
       <c r="J5">
-        <v>1.029400825615787</v>
+        <v>1.043228704920893</v>
       </c>
       <c r="K5">
-        <v>1.03971894129224</v>
+        <v>1.048386627874178</v>
       </c>
       <c r="L5">
-        <v>1.027598655028523</v>
+        <v>1.0447748505561</v>
       </c>
       <c r="M5">
-        <v>1.044671153339504</v>
+        <v>1.057155319506182</v>
       </c>
       <c r="N5">
-        <v>1.030862692862086</v>
+        <v>1.044710209341886</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010944695783281</v>
+        <v>1.03885752065934</v>
       </c>
       <c r="D6">
-        <v>1.030361580364546</v>
+        <v>1.046017747628492</v>
       </c>
       <c r="E6">
-        <v>1.018139024074439</v>
+        <v>1.042406287719062</v>
       </c>
       <c r="F6">
-        <v>1.035391476967388</v>
+        <v>1.054813676730168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047480245689438</v>
+        <v>1.037328497370603</v>
       </c>
       <c r="J6">
-        <v>1.029549599757895</v>
+        <v>1.043262645401337</v>
       </c>
       <c r="K6">
-        <v>1.039854875156283</v>
+        <v>1.04841679683844</v>
       </c>
       <c r="L6">
-        <v>1.027767300848593</v>
+        <v>1.044814087115579</v>
       </c>
       <c r="M6">
-        <v>1.044830357914992</v>
+        <v>1.057191683518413</v>
       </c>
       <c r="N6">
-        <v>1.031011678280541</v>
+        <v>1.044744198021704</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009361441563213</v>
+        <v>1.038511662802909</v>
       </c>
       <c r="D7">
-        <v>1.029160494939848</v>
+        <v>1.045750427650739</v>
       </c>
       <c r="E7">
-        <v>1.016705468229148</v>
+        <v>1.042076280769159</v>
       </c>
       <c r="F7">
-        <v>1.034030017617563</v>
+        <v>1.054504238783795</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047089678617621</v>
+        <v>1.03726351309051</v>
       </c>
       <c r="J7">
-        <v>1.028522670503511</v>
+        <v>1.043029239481534</v>
       </c>
       <c r="K7">
-        <v>1.038916382266407</v>
+        <v>1.048209298085965</v>
       </c>
       <c r="L7">
-        <v>1.026603433487443</v>
+        <v>1.044544289053568</v>
       </c>
       <c r="M7">
-        <v>1.04373150201009</v>
+        <v>1.056941613861972</v>
       </c>
       <c r="N7">
-        <v>1.029983290668825</v>
+        <v>1.044510460638723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002596250575621</v>
+        <v>1.037066537037434</v>
       </c>
       <c r="D8">
-        <v>1.024032678882152</v>
+        <v>1.044633103045186</v>
       </c>
       <c r="E8">
-        <v>1.010591685103632</v>
+        <v>1.040698123012841</v>
       </c>
       <c r="F8">
-        <v>1.028221633559344</v>
+        <v>1.053211499352435</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045398359816653</v>
+        <v>1.036989199827921</v>
       </c>
       <c r="J8">
-        <v>1.024129408247562</v>
+        <v>1.042053024721125</v>
       </c>
       <c r="K8">
-        <v>1.034896662471704</v>
+        <v>1.047340712308396</v>
       </c>
       <c r="L8">
-        <v>1.021630071463858</v>
+        <v>1.043416576414529</v>
       </c>
       <c r="M8">
-        <v>1.039032426937697</v>
+        <v>1.055895772008655</v>
       </c>
       <c r="N8">
-        <v>1.025583789476558</v>
+        <v>1.043532859541382</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900686525098256</v>
+        <v>1.034521914437976</v>
       </c>
       <c r="D9">
-        <v>1.014559143072781</v>
+        <v>1.042664377570505</v>
       </c>
       <c r="E9">
-        <v>0.9993188619855222</v>
+        <v>1.038274231779615</v>
       </c>
       <c r="F9">
-        <v>1.017505770240513</v>
+        <v>1.050936046368666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042183438190529</v>
+        <v>1.036495700674771</v>
       </c>
       <c r="J9">
-        <v>1.015977053355359</v>
+        <v>1.040330495491736</v>
       </c>
       <c r="K9">
-        <v>1.02742034347673</v>
+        <v>1.045805367461924</v>
       </c>
       <c r="L9">
-        <v>1.012422999853752</v>
+        <v>1.041429408525136</v>
       </c>
       <c r="M9">
-        <v>1.030321072756084</v>
+        <v>1.054050658472512</v>
       </c>
       <c r="N9">
-        <v>1.01741985730532</v>
+        <v>1.04180788412291</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9812567480519897</v>
+        <v>1.032826733179371</v>
       </c>
       <c r="D10">
-        <v>1.007915683448848</v>
+        <v>1.041352017735866</v>
       </c>
       <c r="E10">
-        <v>0.9914259129361126</v>
+        <v>1.036661402194636</v>
       </c>
       <c r="F10">
-        <v>1.010000490642507</v>
+        <v>1.049420794733867</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039869087048966</v>
+        <v>1.036159906395488</v>
       </c>
       <c r="J10">
-        <v>1.010234268745366</v>
+        <v>1.039180592078599</v>
       </c>
       <c r="K10">
-        <v>1.022143473598355</v>
+        <v>1.044778602536688</v>
       </c>
       <c r="L10">
-        <v>1.0059517202479</v>
+        <v>1.040104639320167</v>
       </c>
       <c r="M10">
-        <v>1.024191500577566</v>
+        <v>1.052819117862176</v>
       </c>
       <c r="N10">
-        <v>1.011668917282475</v>
+        <v>1.040656347715031</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.977319021210836</v>
+        <v>1.03209298698684</v>
       </c>
       <c r="D11">
-        <v>1.004953030399978</v>
+        <v>1.040783785906197</v>
       </c>
       <c r="E11">
-        <v>0.987908300951824</v>
+        <v>1.035963764298713</v>
       </c>
       <c r="F11">
-        <v>1.00665555450811</v>
+        <v>1.048765085425995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038823090505818</v>
+        <v>1.03601289435011</v>
       </c>
       <c r="J11">
-        <v>1.007666772491721</v>
+        <v>1.038682303791616</v>
       </c>
       <c r="K11">
-        <v>1.0197821404265</v>
+        <v>1.044333245297995</v>
       </c>
       <c r="L11">
-        <v>1.00306190930826</v>
+        <v>1.039531002191028</v>
       </c>
       <c r="M11">
-        <v>1.021453038894612</v>
+        <v>1.052285502928805</v>
       </c>
       <c r="N11">
-        <v>1.009097774889653</v>
+        <v>1.040157351801525</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.975836818748348</v>
+        <v>1.031820482142831</v>
       </c>
       <c r="D12">
-        <v>1.003838884675218</v>
+        <v>1.040572723932982</v>
       </c>
       <c r="E12">
-        <v>0.9865857336337912</v>
+        <v>1.035704739811076</v>
       </c>
       <c r="F12">
-        <v>1.005397937649134</v>
+        <v>1.04852158682569</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03842766404255</v>
+        <v>1.035958045637251</v>
       </c>
       <c r="J12">
-        <v>1.006700219779468</v>
+        <v>1.038497161303543</v>
       </c>
       <c r="K12">
-        <v>1.018892905433246</v>
+        <v>1.044167705552284</v>
       </c>
       <c r="L12">
-        <v>1.001974522668611</v>
+        <v>1.039317927248497</v>
       </c>
       <c r="M12">
-        <v>1.020422447269653</v>
+        <v>1.052087242208168</v>
       </c>
       <c r="N12">
-        <v>1.008129849561684</v>
+        <v>1.039971946389883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9761556616676236</v>
+        <v>1.03187893350507</v>
       </c>
       <c r="D13">
-        <v>1.004078504930555</v>
+        <v>1.040617997228011</v>
       </c>
       <c r="E13">
-        <v>0.9868701677281944</v>
+        <v>1.035760296498629</v>
       </c>
       <c r="F13">
-        <v>1.005668401447817</v>
+        <v>1.048573815336378</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038512801645944</v>
+        <v>1.035969821816489</v>
       </c>
       <c r="J13">
-        <v>1.006908143339909</v>
+        <v>1.038536877532315</v>
       </c>
       <c r="K13">
-        <v>1.019084209324276</v>
+        <v>1.04420321955706</v>
       </c>
       <c r="L13">
-        <v>1.002208417179393</v>
+        <v>1.039363632573991</v>
       </c>
       <c r="M13">
-        <v>1.02064413177431</v>
+        <v>1.052129772173167</v>
       </c>
       <c r="N13">
-        <v>1.00833806839743</v>
+        <v>1.040011719020256</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9771969081706355</v>
+        <v>1.032070460815631</v>
       </c>
       <c r="D14">
-        <v>1.004861218568804</v>
+        <v>1.040766339361338</v>
       </c>
       <c r="E14">
-        <v>0.98779930872168</v>
+        <v>1.03594235102474</v>
       </c>
       <c r="F14">
-        <v>1.006551914021504</v>
+        <v>1.048744956509319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038790546982126</v>
+        <v>1.03600836547221</v>
       </c>
       <c r="J14">
-        <v>1.007587143903042</v>
+        <v>1.038667000999203</v>
       </c>
       <c r="K14">
-        <v>1.01970888739607</v>
+        <v>1.044319564060626</v>
       </c>
       <c r="L14">
-        <v>1.002972315714279</v>
+        <v>1.039513389361884</v>
       </c>
       <c r="M14">
-        <v>1.021368127803377</v>
+        <v>1.052269115703261</v>
       </c>
       <c r="N14">
-        <v>1.009018033219246</v>
+        <v>1.040142027277392</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778358253355877</v>
+        <v>1.032188472547065</v>
       </c>
       <c r="D15">
-        <v>1.005341637020004</v>
+        <v>1.040857738468703</v>
       </c>
       <c r="E15">
-        <v>0.9883696370228042</v>
+        <v>1.036054535306412</v>
       </c>
       <c r="F15">
-        <v>1.007094239379771</v>
+        <v>1.048850410328814</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038960751580339</v>
+        <v>1.036032081441184</v>
       </c>
       <c r="J15">
-        <v>1.008003770395109</v>
+        <v>1.038747166935064</v>
       </c>
       <c r="K15">
-        <v>1.020092144386156</v>
+        <v>1.044391232615462</v>
       </c>
       <c r="L15">
-        <v>1.003441100824839</v>
+        <v>1.039605659383618</v>
       </c>
       <c r="M15">
-        <v>1.021812406290268</v>
+        <v>1.052354962915844</v>
       </c>
       <c r="N15">
-        <v>1.009435251368719</v>
+        <v>1.040222307058077</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.981515408292695</v>
+        <v>1.032875435307045</v>
       </c>
       <c r="D16">
-        <v>1.008110429297808</v>
+        <v>1.041389730042224</v>
       </c>
       <c r="E16">
-        <v>0.9916571801227282</v>
+        <v>1.036707717454699</v>
       </c>
       <c r="F16">
-        <v>1.010220406613282</v>
+        <v>1.049464320546922</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039937556584201</v>
+        <v>1.036169629171635</v>
       </c>
       <c r="J16">
-        <v>1.010402901326492</v>
+        <v>1.039213653976978</v>
       </c>
       <c r="K16">
-        <v>1.022298523225219</v>
+        <v>1.04480814340242</v>
       </c>
       <c r="L16">
-        <v>1.006141592371595</v>
+        <v>1.040142709651</v>
       </c>
       <c r="M16">
-        <v>1.024371405203224</v>
+        <v>1.052854524773857</v>
       </c>
       <c r="N16">
-        <v>1.011837789341208</v>
+        <v>1.040689456565097</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9837899976979888</v>
+        <v>1.033306422975452</v>
       </c>
       <c r="D17">
-        <v>1.009823675841342</v>
+        <v>1.041723442199417</v>
       </c>
       <c r="E17">
-        <v>0.9936919666037599</v>
+        <v>1.03711763619901</v>
       </c>
       <c r="F17">
-        <v>1.01215531423127</v>
+        <v>1.049849518711804</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040538327513169</v>
+        <v>1.036255478032978</v>
       </c>
       <c r="J17">
-        <v>1.011885677255964</v>
+        <v>1.039506169193563</v>
       </c>
       <c r="K17">
-        <v>1.023661625301467</v>
+        <v>1.045069456809028</v>
       </c>
       <c r="L17">
-        <v>1.007811509943106</v>
+        <v>1.040479586154458</v>
       </c>
       <c r="M17">
-        <v>1.025953521370488</v>
+        <v>1.053167793216315</v>
       </c>
       <c r="N17">
-        <v>1.013322670982576</v>
+        <v>1.040982387186841</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9851050318339973</v>
+        <v>1.033557837705063</v>
       </c>
       <c r="D18">
-        <v>1.01081474147778</v>
+        <v>1.041918093596177</v>
       </c>
       <c r="E18">
-        <v>0.9948692517220423</v>
+        <v>1.037356805109817</v>
       </c>
       <c r="F18">
-        <v>1.01327479966327</v>
+        <v>1.050074237311162</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040884536435659</v>
+        <v>1.03630539678366</v>
       </c>
       <c r="J18">
-        <v>1.012742808271379</v>
+        <v>1.039676752431878</v>
       </c>
       <c r="K18">
-        <v>1.024449373493397</v>
+        <v>1.045221803039569</v>
       </c>
       <c r="L18">
-        <v>1.008777140201303</v>
+        <v>1.040676080203793</v>
       </c>
       <c r="M18">
-        <v>1.026868260489682</v>
+        <v>1.053350483644421</v>
       </c>
       <c r="N18">
-        <v>1.014181019222347</v>
+        <v>1.041153212672921</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9855514758351211</v>
+        <v>1.033643568216486</v>
       </c>
       <c r="D19">
-        <v>1.011151293500509</v>
+        <v>1.041984465147284</v>
       </c>
       <c r="E19">
-        <v>0.9952690799080796</v>
+        <v>1.037438367444463</v>
       </c>
       <c r="F19">
-        <v>1.013654994791426</v>
+        <v>1.050150867158667</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041001879440144</v>
+        <v>1.036322391418847</v>
       </c>
       <c r="J19">
-        <v>1.013033774848637</v>
+        <v>1.039734910814062</v>
       </c>
       <c r="K19">
-        <v>1.024716751523892</v>
+        <v>1.045273736703374</v>
       </c>
       <c r="L19">
-        <v>1.00910499303858</v>
+        <v>1.040743079545438</v>
       </c>
       <c r="M19">
-        <v>1.027178813399662</v>
+        <v>1.053412770628878</v>
       </c>
       <c r="N19">
-        <v>1.01447239900552</v>
+        <v>1.041211453646679</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9835471739054141</v>
+        <v>1.033260179298313</v>
       </c>
       <c r="D20">
-        <v>1.009640718555481</v>
+        <v>1.041687637757163</v>
       </c>
       <c r="E20">
-        <v>0.9934746499693498</v>
+        <v>1.037073648532109</v>
       </c>
       <c r="F20">
-        <v>1.011948665675092</v>
+        <v>1.04980818655564</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040474308134337</v>
+        <v>1.036246283339317</v>
       </c>
       <c r="J20">
-        <v>1.011727395809441</v>
+        <v>1.039474788796823</v>
       </c>
       <c r="K20">
-        <v>1.023516139664469</v>
+        <v>1.045041427950661</v>
       </c>
       <c r="L20">
-        <v>1.007633218512936</v>
+        <v>1.04044344252687</v>
       </c>
       <c r="M20">
-        <v>1.025784616428089</v>
+        <v>1.053134185967248</v>
       </c>
       <c r="N20">
-        <v>1.013164164758245</v>
+        <v>1.040950962226339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.976890837076297</v>
+        <v>1.032014059665505</v>
       </c>
       <c r="D21">
-        <v>1.004631113124524</v>
+        <v>1.04072265617001</v>
       </c>
       <c r="E21">
-        <v>0.9875261487907887</v>
+        <v>1.035888737488093</v>
       </c>
       <c r="F21">
-        <v>1.006292167388094</v>
+        <v>1.048694558012772</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038708950872634</v>
+        <v>1.035997022002695</v>
       </c>
       <c r="J21">
-        <v>1.007387556575186</v>
+        <v>1.03862868442872</v>
       </c>
       <c r="K21">
-        <v>1.019525275630571</v>
+        <v>1.044285306656599</v>
       </c>
       <c r="L21">
-        <v>1.002747759414342</v>
+        <v>1.039469289736794</v>
       </c>
       <c r="M21">
-        <v>1.021155305284685</v>
+        <v>1.052228083951166</v>
       </c>
       <c r="N21">
-        <v>1.008818162454491</v>
+        <v>1.040103656292984</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9725919169785227</v>
+        <v>1.031230812612329</v>
       </c>
       <c r="D22">
-        <v>1.001401776135323</v>
+        <v>1.040115960888184</v>
       </c>
       <c r="E22">
-        <v>0.9836931611813196</v>
+        <v>1.035144369161927</v>
       </c>
       <c r="F22">
-        <v>1.002647515428397</v>
+        <v>1.047994728778994</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037558927749224</v>
+        <v>1.035838902049687</v>
       </c>
       <c r="J22">
-        <v>1.004584059527893</v>
+        <v>1.038096380815483</v>
       </c>
       <c r="K22">
-        <v>1.016945514620509</v>
+        <v>1.043809242309779</v>
       </c>
       <c r="L22">
-        <v>0.9995947322319388</v>
+        <v>1.038856797871697</v>
       </c>
       <c r="M22">
-        <v>1.018166706340597</v>
+        <v>1.051658078706712</v>
       </c>
       <c r="N22">
-        <v>1.006010684119825</v>
+        <v>1.03957059674756</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9748820754818007</v>
+        <v>1.031646004377262</v>
       </c>
       <c r="D23">
-        <v>1.003121525840599</v>
+        <v>1.040437578873684</v>
       </c>
       <c r="E23">
-        <v>0.9857342501334712</v>
+        <v>1.035538912988864</v>
       </c>
       <c r="F23">
-        <v>1.004588282998858</v>
+        <v>1.048365687935326</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038172484135168</v>
+        <v>1.035922857038254</v>
       </c>
       <c r="J23">
-        <v>1.006077601388266</v>
+        <v>1.038378595785709</v>
       </c>
       <c r="K23">
-        <v>1.018320013072187</v>
+        <v>1.044061675627189</v>
       </c>
       <c r="L23">
-        <v>1.001274208855329</v>
+        <v>1.03918149173888</v>
       </c>
       <c r="M23">
-        <v>1.019758671781303</v>
+        <v>1.051960277931565</v>
       </c>
       <c r="N23">
-        <v>1.007506346980951</v>
+        <v>1.039853212495414</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9836569315782939</v>
+        <v>1.033281074742047</v>
       </c>
       <c r="D24">
-        <v>1.009723414492183</v>
+        <v>1.041703816234892</v>
       </c>
       <c r="E24">
-        <v>0.9935728755104029</v>
+        <v>1.037093524448165</v>
       </c>
       <c r="F24">
-        <v>1.01204206936209</v>
+        <v>1.049826862657206</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040503248725409</v>
+        <v>1.036250438505842</v>
       </c>
       <c r="J24">
-        <v>1.011798940269522</v>
+        <v>1.03948896835827</v>
       </c>
       <c r="K24">
-        <v>1.023581900953865</v>
+        <v>1.04505409321215</v>
       </c>
       <c r="L24">
-        <v>1.007713806648793</v>
+        <v>1.040459774277227</v>
       </c>
       <c r="M24">
-        <v>1.025860962224345</v>
+        <v>1.053149371740691</v>
       </c>
       <c r="N24">
-        <v>1.013235810819665</v>
+        <v>1.04096516192439</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.993384358788584</v>
+        <v>1.035179541019561</v>
       </c>
       <c r="D25">
-        <v>1.017063445521114</v>
+        <v>1.043173320481885</v>
       </c>
       <c r="E25">
-        <v>1.002296477823437</v>
+        <v>1.038900320172997</v>
       </c>
       <c r="F25">
-        <v>1.020336806371259</v>
+        <v>1.051524004577992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043043686202076</v>
+        <v>1.036624480557634</v>
       </c>
       <c r="J25">
-        <v>1.018136435417417</v>
+        <v>1.040776084276339</v>
       </c>
       <c r="K25">
-        <v>1.029402524841343</v>
+        <v>1.046202856394679</v>
       </c>
       <c r="L25">
-        <v>1.014859248229209</v>
+        <v>1.041943137802525</v>
       </c>
       <c r="M25">
-        <v>1.032627414335111</v>
+        <v>1.05452792411519</v>
       </c>
       <c r="N25">
-        <v>1.019582305937591</v>
+        <v>1.042254105694697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036694630684902</v>
+        <v>1.000815248269317</v>
       </c>
       <c r="D2">
-        <v>1.044345466682616</v>
+        <v>1.022684015958338</v>
       </c>
       <c r="E2">
-        <v>1.040343640754303</v>
+        <v>1.00898527962994</v>
       </c>
       <c r="F2">
-        <v>1.05287886545348</v>
+        <v>1.026695000380997</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036917892748111</v>
+        <v>1.044947479782435</v>
       </c>
       <c r="J2">
-        <v>1.041801549840452</v>
+        <v>1.022971602712529</v>
       </c>
       <c r="K2">
-        <v>1.047116777370738</v>
+        <v>1.033836119378384</v>
       </c>
       <c r="L2">
-        <v>1.043126257244017</v>
+        <v>1.020320838610894</v>
       </c>
       <c r="M2">
-        <v>1.055626379067381</v>
+        <v>1.037794548803713</v>
       </c>
       <c r="N2">
-        <v>1.043281027537533</v>
+        <v>1.024424339724864</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037795243449714</v>
+        <v>1.006038130392724</v>
       </c>
       <c r="D3">
-        <v>1.045196586551238</v>
+        <v>1.026640596837969</v>
       </c>
       <c r="E3">
-        <v>1.041392913115981</v>
+        <v>1.013699795351926</v>
       </c>
       <c r="F3">
-        <v>1.05386332215236</v>
+        <v>1.031174873769277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037128078460867</v>
+        <v>1.046263226002731</v>
       </c>
       <c r="J3">
-        <v>1.042545472805016</v>
+        <v>1.026365532456075</v>
       </c>
       <c r="K3">
-        <v>1.047779012258042</v>
+        <v>1.036943586277042</v>
       </c>
       <c r="L3">
-        <v>1.043985305131532</v>
+        <v>1.02416033498681</v>
       </c>
       <c r="M3">
-        <v>1.056423329363004</v>
+        <v>1.041423819232066</v>
       </c>
       <c r="N3">
-        <v>1.044026006958036</v>
+        <v>1.027823089237935</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038507660308317</v>
+        <v>1.009343039217176</v>
       </c>
       <c r="D4">
-        <v>1.04574733384831</v>
+        <v>1.029146536733089</v>
       </c>
       <c r="E4">
-        <v>1.04207246211418</v>
+        <v>1.016688812060716</v>
       </c>
       <c r="F4">
-        <v>1.05450065787718</v>
+        <v>1.034014197919322</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037262759522156</v>
+        <v>1.047085126726493</v>
       </c>
       <c r="J4">
-        <v>1.04302653782935</v>
+        <v>1.028510731424418</v>
       </c>
       <c r="K4">
-        <v>1.048206895907588</v>
+        <v>1.038905468699041</v>
       </c>
       <c r="L4">
-        <v>1.044541166555784</v>
+        <v>1.026589905477816</v>
       </c>
       <c r="M4">
-        <v>1.05693871936551</v>
+        <v>1.043718727684453</v>
       </c>
       <c r="N4">
-        <v>1.044507755149884</v>
+        <v>1.02997133463487</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038807219804913</v>
+        <v>1.010715276338414</v>
       </c>
       <c r="D5">
-        <v>1.045978871294667</v>
+        <v>1.03018751628339</v>
       </c>
       <c r="E5">
-        <v>1.042358287906623</v>
+        <v>1.017931230785164</v>
       </c>
       <c r="F5">
-        <v>1.054768671517106</v>
+        <v>1.035194146979547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037319062454998</v>
+        <v>1.047423781817852</v>
       </c>
       <c r="J5">
-        <v>1.043228704920893</v>
+        <v>1.029400825615786</v>
       </c>
       <c r="K5">
-        <v>1.048386627874178</v>
+        <v>1.03971894129224</v>
       </c>
       <c r="L5">
-        <v>1.0447748505561</v>
+        <v>1.027598655028523</v>
       </c>
       <c r="M5">
-        <v>1.057155319506182</v>
+        <v>1.044671153339504</v>
       </c>
       <c r="N5">
-        <v>1.044710209341886</v>
+        <v>1.030862692862086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03885752065934</v>
+        <v>1.010944695783281</v>
       </c>
       <c r="D6">
-        <v>1.046017747628492</v>
+        <v>1.030361580364546</v>
       </c>
       <c r="E6">
-        <v>1.042406287719062</v>
+        <v>1.01813902407444</v>
       </c>
       <c r="F6">
-        <v>1.054813676730168</v>
+        <v>1.035391476967388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037328497370603</v>
+        <v>1.047480245689439</v>
       </c>
       <c r="J6">
-        <v>1.043262645401337</v>
+        <v>1.029549599757895</v>
       </c>
       <c r="K6">
-        <v>1.04841679683844</v>
+        <v>1.039854875156284</v>
       </c>
       <c r="L6">
-        <v>1.044814087115579</v>
+        <v>1.027767300848593</v>
       </c>
       <c r="M6">
-        <v>1.057191683518413</v>
+        <v>1.044830357914992</v>
       </c>
       <c r="N6">
-        <v>1.044744198021704</v>
+        <v>1.031011678280541</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038511662802909</v>
+        <v>1.009361441563214</v>
       </c>
       <c r="D7">
-        <v>1.045750427650739</v>
+        <v>1.029160494939849</v>
       </c>
       <c r="E7">
-        <v>1.042076280769159</v>
+        <v>1.016705468229149</v>
       </c>
       <c r="F7">
-        <v>1.054504238783795</v>
+        <v>1.034030017617563</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03726351309051</v>
+        <v>1.047089678617622</v>
       </c>
       <c r="J7">
-        <v>1.043029239481534</v>
+        <v>1.028522670503511</v>
       </c>
       <c r="K7">
-        <v>1.048209298085965</v>
+        <v>1.038916382266408</v>
       </c>
       <c r="L7">
-        <v>1.044544289053568</v>
+        <v>1.026603433487444</v>
       </c>
       <c r="M7">
-        <v>1.056941613861972</v>
+        <v>1.04373150201009</v>
       </c>
       <c r="N7">
-        <v>1.044510460638723</v>
+        <v>1.029983290668826</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037066537037434</v>
+        <v>1.00259625057562</v>
       </c>
       <c r="D8">
-        <v>1.044633103045186</v>
+        <v>1.024032678882151</v>
       </c>
       <c r="E8">
-        <v>1.040698123012841</v>
+        <v>1.010591685103631</v>
       </c>
       <c r="F8">
-        <v>1.053211499352435</v>
+        <v>1.028221633559342</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036989199827921</v>
+        <v>1.045398359816652</v>
       </c>
       <c r="J8">
-        <v>1.042053024721125</v>
+        <v>1.02412940824756</v>
       </c>
       <c r="K8">
-        <v>1.047340712308396</v>
+        <v>1.034896662471703</v>
       </c>
       <c r="L8">
-        <v>1.043416576414529</v>
+        <v>1.021630071463856</v>
       </c>
       <c r="M8">
-        <v>1.055895772008655</v>
+        <v>1.039032426937695</v>
       </c>
       <c r="N8">
-        <v>1.043532859541382</v>
+        <v>1.025583789476556</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.034521914437976</v>
+        <v>0.9900686525098252</v>
       </c>
       <c r="D9">
-        <v>1.042664377570505</v>
+        <v>1.014559143072781</v>
       </c>
       <c r="E9">
-        <v>1.038274231779615</v>
+        <v>0.999318861985522</v>
       </c>
       <c r="F9">
-        <v>1.050936046368666</v>
+        <v>1.017505770240513</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036495700674771</v>
+        <v>1.042183438190529</v>
       </c>
       <c r="J9">
-        <v>1.040330495491736</v>
+        <v>1.015977053355358</v>
       </c>
       <c r="K9">
-        <v>1.045805367461924</v>
+        <v>1.02742034347673</v>
       </c>
       <c r="L9">
-        <v>1.041429408525136</v>
+        <v>1.012422999853752</v>
       </c>
       <c r="M9">
-        <v>1.054050658472512</v>
+        <v>1.030321072756084</v>
       </c>
       <c r="N9">
-        <v>1.04180788412291</v>
+        <v>1.01741985730532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032826733179371</v>
+        <v>0.9812567480519898</v>
       </c>
       <c r="D10">
-        <v>1.041352017735866</v>
+        <v>1.007915683448848</v>
       </c>
       <c r="E10">
-        <v>1.036661402194636</v>
+        <v>0.991425912936113</v>
       </c>
       <c r="F10">
-        <v>1.049420794733867</v>
+        <v>1.010000490642507</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036159906395488</v>
+        <v>1.039869087048966</v>
       </c>
       <c r="J10">
-        <v>1.039180592078599</v>
+        <v>1.010234268745366</v>
       </c>
       <c r="K10">
-        <v>1.044778602536688</v>
+        <v>1.022143473598355</v>
       </c>
       <c r="L10">
-        <v>1.040104639320167</v>
+        <v>1.0059517202479</v>
       </c>
       <c r="M10">
-        <v>1.052819117862176</v>
+        <v>1.024191500577566</v>
       </c>
       <c r="N10">
-        <v>1.040656347715031</v>
+        <v>1.011668917282475</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03209298698684</v>
+        <v>0.9773190212108362</v>
       </c>
       <c r="D11">
-        <v>1.040783785906197</v>
+        <v>1.004953030399979</v>
       </c>
       <c r="E11">
-        <v>1.035963764298713</v>
+        <v>0.987908300951824</v>
       </c>
       <c r="F11">
-        <v>1.048765085425995</v>
+        <v>1.006655554508111</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03601289435011</v>
+        <v>1.038823090505818</v>
       </c>
       <c r="J11">
-        <v>1.038682303791616</v>
+        <v>1.007666772491721</v>
       </c>
       <c r="K11">
-        <v>1.044333245297995</v>
+        <v>1.019782140426501</v>
       </c>
       <c r="L11">
-        <v>1.039531002191028</v>
+        <v>1.00306190930826</v>
       </c>
       <c r="M11">
-        <v>1.052285502928805</v>
+        <v>1.021453038894613</v>
       </c>
       <c r="N11">
-        <v>1.040157351801525</v>
+        <v>1.009097774889654</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.031820482142831</v>
+        <v>0.9758368187483486</v>
       </c>
       <c r="D12">
-        <v>1.040572723932982</v>
+        <v>1.003838884675218</v>
       </c>
       <c r="E12">
-        <v>1.035704739811076</v>
+        <v>0.9865857336337919</v>
       </c>
       <c r="F12">
-        <v>1.04852158682569</v>
+        <v>1.005397937649134</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035958045637251</v>
+        <v>1.038427664042551</v>
       </c>
       <c r="J12">
-        <v>1.038497161303543</v>
+        <v>1.006700219779469</v>
       </c>
       <c r="K12">
-        <v>1.044167705552284</v>
+        <v>1.018892905433246</v>
       </c>
       <c r="L12">
-        <v>1.039317927248497</v>
+        <v>1.001974522668611</v>
       </c>
       <c r="M12">
-        <v>1.052087242208168</v>
+        <v>1.020422447269653</v>
       </c>
       <c r="N12">
-        <v>1.039971946389883</v>
+        <v>1.008129849561685</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03187893350507</v>
+        <v>0.9761556616676236</v>
       </c>
       <c r="D13">
-        <v>1.040617997228011</v>
+        <v>1.004078504930555</v>
       </c>
       <c r="E13">
-        <v>1.035760296498629</v>
+        <v>0.9868701677281946</v>
       </c>
       <c r="F13">
-        <v>1.048573815336378</v>
+        <v>1.005668401447817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035969821816489</v>
+        <v>1.038512801645944</v>
       </c>
       <c r="J13">
-        <v>1.038536877532315</v>
+        <v>1.006908143339909</v>
       </c>
       <c r="K13">
-        <v>1.04420321955706</v>
+        <v>1.019084209324276</v>
       </c>
       <c r="L13">
-        <v>1.039363632573991</v>
+        <v>1.002208417179393</v>
       </c>
       <c r="M13">
-        <v>1.052129772173167</v>
+        <v>1.02064413177431</v>
       </c>
       <c r="N13">
-        <v>1.040011719020256</v>
+        <v>1.00833806839743</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032070460815631</v>
+        <v>0.9771969081706356</v>
       </c>
       <c r="D14">
-        <v>1.040766339361338</v>
+        <v>1.004861218568804</v>
       </c>
       <c r="E14">
-        <v>1.03594235102474</v>
+        <v>0.9877993087216795</v>
       </c>
       <c r="F14">
-        <v>1.048744956509319</v>
+        <v>1.006551914021504</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03600836547221</v>
+        <v>1.038790546982126</v>
       </c>
       <c r="J14">
-        <v>1.038667000999203</v>
+        <v>1.007587143903042</v>
       </c>
       <c r="K14">
-        <v>1.044319564060626</v>
+        <v>1.01970888739607</v>
       </c>
       <c r="L14">
-        <v>1.039513389361884</v>
+        <v>1.002972315714278</v>
       </c>
       <c r="M14">
-        <v>1.052269115703261</v>
+        <v>1.021368127803378</v>
       </c>
       <c r="N14">
-        <v>1.040142027277392</v>
+        <v>1.009018033219246</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032188472547065</v>
+        <v>0.9778358253355866</v>
       </c>
       <c r="D15">
-        <v>1.040857738468703</v>
+        <v>1.005341637020004</v>
       </c>
       <c r="E15">
-        <v>1.036054535306412</v>
+        <v>0.9883696370228031</v>
       </c>
       <c r="F15">
-        <v>1.048850410328814</v>
+        <v>1.007094239379771</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036032081441184</v>
+        <v>1.038960751580339</v>
       </c>
       <c r="J15">
-        <v>1.038747166935064</v>
+        <v>1.008003770395108</v>
       </c>
       <c r="K15">
-        <v>1.044391232615462</v>
+        <v>1.020092144386156</v>
       </c>
       <c r="L15">
-        <v>1.039605659383618</v>
+        <v>1.003441100824838</v>
       </c>
       <c r="M15">
-        <v>1.052354962915844</v>
+        <v>1.021812406290267</v>
       </c>
       <c r="N15">
-        <v>1.040222307058077</v>
+        <v>1.009435251368717</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032875435307045</v>
+        <v>0.9815154082926953</v>
       </c>
       <c r="D16">
-        <v>1.041389730042224</v>
+        <v>1.008110429297808</v>
       </c>
       <c r="E16">
-        <v>1.036707717454699</v>
+        <v>0.9916571801227285</v>
       </c>
       <c r="F16">
-        <v>1.049464320546922</v>
+        <v>1.010220406613282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036169629171635</v>
+        <v>1.039937556584201</v>
       </c>
       <c r="J16">
-        <v>1.039213653976978</v>
+        <v>1.010402901326492</v>
       </c>
       <c r="K16">
-        <v>1.04480814340242</v>
+        <v>1.022298523225219</v>
       </c>
       <c r="L16">
-        <v>1.040142709651</v>
+        <v>1.006141592371595</v>
       </c>
       <c r="M16">
-        <v>1.052854524773857</v>
+        <v>1.024371405203224</v>
       </c>
       <c r="N16">
-        <v>1.040689456565097</v>
+        <v>1.011837789341208</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033306422975452</v>
+        <v>0.983789997697989</v>
       </c>
       <c r="D17">
-        <v>1.041723442199417</v>
+        <v>1.009823675841342</v>
       </c>
       <c r="E17">
-        <v>1.03711763619901</v>
+        <v>0.9936919666037602</v>
       </c>
       <c r="F17">
-        <v>1.049849518711804</v>
+        <v>1.01215531423127</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036255478032978</v>
+        <v>1.040538327513169</v>
       </c>
       <c r="J17">
-        <v>1.039506169193563</v>
+        <v>1.011885677255964</v>
       </c>
       <c r="K17">
-        <v>1.045069456809028</v>
+        <v>1.023661625301467</v>
       </c>
       <c r="L17">
-        <v>1.040479586154458</v>
+        <v>1.007811509943106</v>
       </c>
       <c r="M17">
-        <v>1.053167793216315</v>
+        <v>1.025953521370488</v>
       </c>
       <c r="N17">
-        <v>1.040982387186841</v>
+        <v>1.013322670982577</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033557837705063</v>
+        <v>0.9851050318339964</v>
       </c>
       <c r="D18">
-        <v>1.041918093596177</v>
+        <v>1.010814741477779</v>
       </c>
       <c r="E18">
-        <v>1.037356805109817</v>
+        <v>0.9948692517220415</v>
       </c>
       <c r="F18">
-        <v>1.050074237311162</v>
+        <v>1.01327479966327</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03630539678366</v>
+        <v>1.040884536435659</v>
       </c>
       <c r="J18">
-        <v>1.039676752431878</v>
+        <v>1.012742808271378</v>
       </c>
       <c r="K18">
-        <v>1.045221803039569</v>
+        <v>1.024449373493397</v>
       </c>
       <c r="L18">
-        <v>1.040676080203793</v>
+        <v>1.008777140201302</v>
       </c>
       <c r="M18">
-        <v>1.053350483644421</v>
+        <v>1.026868260489682</v>
       </c>
       <c r="N18">
-        <v>1.041153212672921</v>
+        <v>1.014181019222347</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033643568216486</v>
+        <v>0.9855514758351218</v>
       </c>
       <c r="D19">
-        <v>1.041984465147284</v>
+        <v>1.01115129350051</v>
       </c>
       <c r="E19">
-        <v>1.037438367444463</v>
+        <v>0.99526907990808</v>
       </c>
       <c r="F19">
-        <v>1.050150867158667</v>
+        <v>1.013654994791426</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036322391418847</v>
+        <v>1.041001879440145</v>
       </c>
       <c r="J19">
-        <v>1.039734910814062</v>
+        <v>1.013033774848638</v>
       </c>
       <c r="K19">
-        <v>1.045273736703374</v>
+        <v>1.024716751523892</v>
       </c>
       <c r="L19">
-        <v>1.040743079545438</v>
+        <v>1.009104993038581</v>
       </c>
       <c r="M19">
-        <v>1.053412770628878</v>
+        <v>1.027178813399662</v>
       </c>
       <c r="N19">
-        <v>1.041211453646679</v>
+        <v>1.014472399005521</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033260179298313</v>
+        <v>0.9835471739054154</v>
       </c>
       <c r="D20">
-        <v>1.041687637757163</v>
+        <v>1.009640718555482</v>
       </c>
       <c r="E20">
-        <v>1.037073648532109</v>
+        <v>0.9934746499693509</v>
       </c>
       <c r="F20">
-        <v>1.04980818655564</v>
+        <v>1.011948665675093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036246283339317</v>
+        <v>1.040474308134338</v>
       </c>
       <c r="J20">
-        <v>1.039474788796823</v>
+        <v>1.011727395809442</v>
       </c>
       <c r="K20">
-        <v>1.045041427950661</v>
+        <v>1.02351613966447</v>
       </c>
       <c r="L20">
-        <v>1.04044344252687</v>
+        <v>1.007633218512937</v>
       </c>
       <c r="M20">
-        <v>1.053134185967248</v>
+        <v>1.02578461642809</v>
       </c>
       <c r="N20">
-        <v>1.040950962226339</v>
+        <v>1.013164164758246</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032014059665505</v>
+        <v>0.9768908370762966</v>
       </c>
       <c r="D21">
-        <v>1.04072265617001</v>
+        <v>1.004631113124524</v>
       </c>
       <c r="E21">
-        <v>1.035888737488093</v>
+        <v>0.9875261487907879</v>
       </c>
       <c r="F21">
-        <v>1.048694558012772</v>
+        <v>1.006292167388094</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035997022002695</v>
+        <v>1.038708950872634</v>
       </c>
       <c r="J21">
-        <v>1.03862868442872</v>
+        <v>1.007387556575186</v>
       </c>
       <c r="K21">
-        <v>1.044285306656599</v>
+        <v>1.019525275630571</v>
       </c>
       <c r="L21">
-        <v>1.039469289736794</v>
+        <v>1.002747759414342</v>
       </c>
       <c r="M21">
-        <v>1.052228083951166</v>
+        <v>1.021155305284684</v>
       </c>
       <c r="N21">
-        <v>1.040103656292984</v>
+        <v>1.008818162454491</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031230812612329</v>
+        <v>0.9725919169785227</v>
       </c>
       <c r="D22">
-        <v>1.040115960888184</v>
+        <v>1.001401776135323</v>
       </c>
       <c r="E22">
-        <v>1.035144369161927</v>
+        <v>0.9836931611813198</v>
       </c>
       <c r="F22">
-        <v>1.047994728778994</v>
+        <v>1.002647515428397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035838902049687</v>
+        <v>1.037558927749224</v>
       </c>
       <c r="J22">
-        <v>1.038096380815483</v>
+        <v>1.004584059527893</v>
       </c>
       <c r="K22">
-        <v>1.043809242309779</v>
+        <v>1.016945514620509</v>
       </c>
       <c r="L22">
-        <v>1.038856797871697</v>
+        <v>0.9995947322319391</v>
       </c>
       <c r="M22">
-        <v>1.051658078706712</v>
+        <v>1.018166706340597</v>
       </c>
       <c r="N22">
-        <v>1.03957059674756</v>
+        <v>1.006010684119825</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031646004377262</v>
+        <v>0.9748820754817998</v>
       </c>
       <c r="D23">
-        <v>1.040437578873684</v>
+        <v>1.003121525840598</v>
       </c>
       <c r="E23">
-        <v>1.035538912988864</v>
+        <v>0.9857342501334698</v>
       </c>
       <c r="F23">
-        <v>1.048365687935326</v>
+        <v>1.004588282998858</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035922857038254</v>
+        <v>1.038172484135168</v>
       </c>
       <c r="J23">
-        <v>1.038378595785709</v>
+        <v>1.006077601388265</v>
       </c>
       <c r="K23">
-        <v>1.044061675627189</v>
+        <v>1.018320013072186</v>
       </c>
       <c r="L23">
-        <v>1.03918149173888</v>
+        <v>1.001274208855328</v>
       </c>
       <c r="M23">
-        <v>1.051960277931565</v>
+        <v>1.019758671781302</v>
       </c>
       <c r="N23">
-        <v>1.039853212495414</v>
+        <v>1.00750634698095</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033281074742047</v>
+        <v>0.9836569315782946</v>
       </c>
       <c r="D24">
-        <v>1.041703816234892</v>
+        <v>1.009723414492184</v>
       </c>
       <c r="E24">
-        <v>1.037093524448165</v>
+        <v>0.9935728755104035</v>
       </c>
       <c r="F24">
-        <v>1.049826862657206</v>
+        <v>1.012042069362091</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036250438505842</v>
+        <v>1.040503248725409</v>
       </c>
       <c r="J24">
-        <v>1.03948896835827</v>
+        <v>1.011798940269522</v>
       </c>
       <c r="K24">
-        <v>1.04505409321215</v>
+        <v>1.023581900953866</v>
       </c>
       <c r="L24">
-        <v>1.040459774277227</v>
+        <v>1.007713806648794</v>
       </c>
       <c r="M24">
-        <v>1.053149371740691</v>
+        <v>1.025860962224346</v>
       </c>
       <c r="N24">
-        <v>1.04096516192439</v>
+        <v>1.013235810819666</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035179541019561</v>
+        <v>0.9933843587885844</v>
       </c>
       <c r="D25">
-        <v>1.043173320481885</v>
+        <v>1.017063445521114</v>
       </c>
       <c r="E25">
-        <v>1.038900320172997</v>
+        <v>1.002296477823437</v>
       </c>
       <c r="F25">
-        <v>1.051524004577992</v>
+        <v>1.020336806371259</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036624480557634</v>
+        <v>1.043043686202076</v>
       </c>
       <c r="J25">
-        <v>1.040776084276339</v>
+        <v>1.018136435417417</v>
       </c>
       <c r="K25">
-        <v>1.046202856394679</v>
+        <v>1.029402524841343</v>
       </c>
       <c r="L25">
-        <v>1.041943137802525</v>
+        <v>1.014859248229209</v>
       </c>
       <c r="M25">
-        <v>1.05452792411519</v>
+        <v>1.032627414335111</v>
       </c>
       <c r="N25">
-        <v>1.042254105694697</v>
+        <v>1.019582305937591</v>
       </c>
     </row>
   </sheetData>
